--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.01.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.01.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.8281473023123</v>
+        <v>90.7669616519174</v>
       </c>
       <c r="C2" t="n">
-        <v>187.8065580357459</v>
+        <v>0.3054679101370918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3382814730231231</v>
+        <v>0.9076696165191741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1740260964581051</v>
+        <v>0.8936271595279811</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.3128054740958</v>
+        <v>93.952802359882</v>
       </c>
       <c r="C3" t="n">
-        <v>1.106009324391683</v>
+        <v>0.2078188489431341</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3031280547409579</v>
+        <v>0.9395280235988202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1418971806496568</v>
+        <v>0.9366577469645672</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.97409147137951</v>
+        <v>88.87905604719764</v>
       </c>
       <c r="C4" t="n">
-        <v>99.90195038355887</v>
+        <v>0.3608324446328576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3497409147137951</v>
+        <v>0.8887905604719764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1828191442116981</v>
+        <v>0.8764453816622426</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.3128054740958</v>
+        <v>92.38938053097345</v>
       </c>
       <c r="C5" t="n">
-        <v>1.106198640664419</v>
+        <v>0.201936621775773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3031280547409579</v>
+        <v>0.9238938053097344</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1418971806496568</v>
+        <v>0.9223453947063641</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.02371992837308</v>
+        <v>95.25073746312685</v>
       </c>
       <c r="C6" t="n">
-        <v>3.439726718266805</v>
+        <v>0.1378631626876692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3202371992837308</v>
+        <v>0.9525073746312686</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1560242702770532</v>
+        <v>0.9510273497953842</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.96767273073296</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C7" t="n">
-        <v>79.15420808466152</v>
+        <v>0.2221008592571404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3296767273073297</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1639692520449295</v>
+        <v>0.9126724305096185</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.58471094040605</v>
+        <v>92.71386430678466</v>
       </c>
       <c r="C8" t="n">
-        <v>215.8150178377168</v>
+        <v>0.187124469427827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3258471094040606</v>
+        <v>0.9271386430678467</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1608797844859416</v>
+        <v>0.9237268726490211</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.52571389025857</v>
+        <v>97.1976401179941</v>
       </c>
       <c r="C9" t="n">
-        <v>543.5080045382182</v>
+        <v>0.07099375937276969</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9719764011799409</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9717147053434296</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>98.40707964601771</v>
       </c>
       <c r="C10" t="n">
-        <v>672.3615196228027</v>
+        <v>0.04925622419356444</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9840707964601769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9841470365557328</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.52571389025857</v>
+        <v>94.80825958702064</v>
       </c>
       <c r="C11" t="n">
-        <v>376.6456633249919</v>
+        <v>0.1093321158286775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9480825958702065</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9452714485286176</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.49326551267745</v>
+        <v>93.53982300884955</v>
       </c>
       <c r="C12" t="n">
-        <v>359.7531499862671</v>
+        <v>0.1799988601693258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3149326551267745</v>
+        <v>0.9353982300884957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1511482668521879</v>
+        <v>0.9363282513134379</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.55174352719314</v>
+        <v>94.0117994100295</v>
       </c>
       <c r="C13" t="n">
-        <v>305.2952842394511</v>
+        <v>0.2084425256884666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3155174352719314</v>
+        <v>0.940117994100295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.152614562345835</v>
+        <v>0.9324388222617623</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.76465194335591</v>
+        <v>92.15339233038348</v>
       </c>
       <c r="C14" t="n">
-        <v>196.2632088581721</v>
+        <v>0.2241013311771288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3376465194335591</v>
+        <v>0.9215339233038348</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1734214332769966</v>
+        <v>0.9178140720212704</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.00218860024741</v>
+        <v>89.73485929809081</v>
       </c>
       <c r="C15" t="n">
-        <v>206.2099160306156</v>
+        <v>0.2472640308706711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.8973485929809082</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166853184765056</v>
+        <v>0.8948824678279322</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.03308852152701</v>
+        <v>94.83793112397166</v>
       </c>
       <c r="C16" t="n">
-        <v>257.3393636703491</v>
+        <v>0.1382369012300236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.35033088521527</v>
+        <v>0.9483793112397165</v>
       </c>
       <c r="E16" t="n">
-        <v>0.183461968245808</v>
+        <v>0.9477281750365159</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.50071367399372</v>
+        <v>95.84070796460176</v>
       </c>
       <c r="C17" t="n">
-        <v>533.0266230652729</v>
+        <v>0.09651731775023412</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3250071367399372</v>
+        <v>0.9584070796460177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1625223765201703</v>
+        <v>0.9576793239301601</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.96384051765153</v>
+        <v>93.36300487028436</v>
       </c>
       <c r="C18" t="n">
-        <v>864.7627078692118</v>
+        <v>0.2578350425197791</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2996384051765154</v>
+        <v>0.9336300487028435</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1388702916163215</v>
+        <v>0.924940034109239</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.35115355669167</v>
+        <v>96.99115044247787</v>
       </c>
       <c r="C19" t="n">
-        <v>83.71341793251007</v>
+        <v>0.1068893032207295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3335115355669167</v>
+        <v>0.9699115044247787</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1698800737983912</v>
+        <v>0.9697016767098556</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.52571389025857</v>
+        <v>92.68436578171091</v>
       </c>
       <c r="C20" t="n">
-        <v>181.5702142079671</v>
+        <v>0.2210038511318999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9268436578171091</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9206755958427827</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.47209750949403</v>
+        <v>86.34356698587358</v>
       </c>
       <c r="C21" t="n">
-        <v>295.1547945658366</v>
+        <v>0.3521014820580604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3447209750949403</v>
+        <v>0.8634356698587358</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1784914464913362</v>
+        <v>0.846805856675141</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.00218860024741</v>
+        <v>92.41887905604719</v>
       </c>
       <c r="C22" t="n">
-        <v>694.7010899861654</v>
+        <v>0.230069797153313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.924188790560472</v>
       </c>
       <c r="E22" t="n">
-        <v>0.166853184765056</v>
+        <v>0.9094423502695073</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.87379648612877</v>
+        <v>91.53392330383481</v>
       </c>
       <c r="C23" t="n">
-        <v>349.886386881272</v>
+        <v>0.2303627975789519</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3087379648612877</v>
+        <v>0.9153392330383481</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1467526948585452</v>
+        <v>0.9090170885014558</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>31.05026860093945</v>
+        <v>94.77876106194689</v>
       </c>
       <c r="C24" t="n">
-        <v>1.112241613864899</v>
+        <v>0.1539248312609288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.947787610619469</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.9459094940873427</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.37822126488983</v>
+        <v>94.74926253687315</v>
       </c>
       <c r="C25" t="n">
-        <v>707.8599094224628</v>
+        <v>0.173799142036296</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3237822126488984</v>
+        <v>0.9474926253687315</v>
       </c>
       <c r="E25" t="n">
-        <v>0.159037813267132</v>
+        <v>0.9441804775796949</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.00218860024741</v>
+        <v>89.64601769911505</v>
       </c>
       <c r="C26" t="n">
-        <v>290.4846166610718</v>
+        <v>0.3055279182395073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.8964601769911505</v>
       </c>
       <c r="E26" t="n">
-        <v>0.166853184765056</v>
+        <v>0.8788289414446767</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.8281473023123</v>
+        <v>83.27433628318583</v>
       </c>
       <c r="C27" t="n">
-        <v>389.7606492996216</v>
+        <v>0.6561424955996397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3382814730231231</v>
+        <v>0.8327433628318583</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1740260964581051</v>
+        <v>0.8249708618934027</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.05026860093945</v>
+        <v>86.69616519174041</v>
       </c>
       <c r="C28" t="n">
-        <v>1.106435414155324</v>
+        <v>0.6528132996861434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.8669616519174042</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.8510600414994214</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.76325054715006</v>
+        <v>99.35103244837758</v>
       </c>
       <c r="C29" t="n">
-        <v>768.0309547424316</v>
+        <v>0.03276636519728271</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3176325054715006</v>
+        <v>0.9935103244837759</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1537837194854745</v>
+        <v>0.9935238097313513</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33.00218860024741</v>
+        <v>99.64601769911505</v>
       </c>
       <c r="C30" t="n">
-        <v>554.8975522359212</v>
+        <v>0.008533705964971716</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.9964601769911503</v>
       </c>
       <c r="E30" t="n">
-        <v>0.166853184765056</v>
+        <v>0.9964641028251414</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.2706251784185</v>
+        <v>95.84070796460176</v>
       </c>
       <c r="C31" t="n">
-        <v>1317.929509735107</v>
+        <v>0.1005258958807706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.342706251784185</v>
+        <v>0.9584070796460177</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1768937197338675</v>
+        <v>0.9557632747360125</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.54868986755942</v>
+        <v>93.11314688420026</v>
       </c>
       <c r="C32" t="n">
-        <v>351.3234294309582</v>
+        <v>0.2143194436890209</v>
       </c>
       <c r="D32" t="n">
-        <v>0.325486898675594</v>
+        <v>0.9311314688420027</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1615935163659665</v>
+        <v>0.9258596748179687</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.31814009304057</v>
+        <v>3.704009515110667</v>
       </c>
       <c r="C33" t="n">
-        <v>304.9932555730657</v>
+        <v>0.1460371181882279</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01318140093040569</v>
+        <v>0.03704009515110664</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01189535996369868</v>
+        <v>0.04119046144881289</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.66885526691407</v>
+        <v>86.8141592920354</v>
       </c>
       <c r="C2" t="n">
-        <v>308.3015111863613</v>
+        <v>0.3424103153486309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2966885526691407</v>
+        <v>0.868141592920354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.136570272823614</v>
+        <v>0.865202930521083</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.58471094040605</v>
+        <v>93.83480825958702</v>
       </c>
       <c r="C3" t="n">
-        <v>283.5154281616211</v>
+        <v>0.1827678146107549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3258471094040606</v>
+        <v>0.9383480825958703</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1608797844859416</v>
+        <v>0.9347683580382412</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.61369042984801</v>
+        <v>86.8141592920354</v>
       </c>
       <c r="C4" t="n">
-        <v>368.5603557268778</v>
+        <v>0.4211536833223363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3261369042984801</v>
+        <v>0.868141592920354</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1611414167636954</v>
+        <v>0.8546055414781761</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.46236559139785</v>
+        <v>90.79663318886841</v>
       </c>
       <c r="C5" t="n">
-        <v>1.339251083880663</v>
+        <v>0.233310828365696</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2946236559139785</v>
+        <v>0.9079663318886843</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1345394833714359</v>
+        <v>0.9021371526985928</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.70130364449519</v>
+        <v>93.83480825958702</v>
       </c>
       <c r="C6" t="n">
-        <v>1.198189838727315</v>
+        <v>0.1701573532811987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3070130364449519</v>
+        <v>0.9383480825958703</v>
       </c>
       <c r="E6" t="n">
-        <v>0.145256865067614</v>
+        <v>0.9341579653173724</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.00064014394589</v>
+        <v>91.29793510324484</v>
       </c>
       <c r="C7" t="n">
-        <v>65.01810038449814</v>
+        <v>0.2313672428785745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3400064014394588</v>
+        <v>0.9129793510324484</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1746603684562245</v>
+        <v>0.9101101680439868</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.93574338878364</v>
+        <v>91.06194690265485</v>
       </c>
       <c r="C8" t="n">
-        <v>175.404041142265</v>
+        <v>0.2778611767557322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3193574338878364</v>
+        <v>0.9106194690265486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1552348215107728</v>
+        <v>0.8987843511997922</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.52571389025857</v>
+        <v>95.39840310037285</v>
       </c>
       <c r="C9" t="n">
-        <v>589.3823914210002</v>
+        <v>0.107432598604214</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9539840310037284</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9525772417185937</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>98.25958702064898</v>
       </c>
       <c r="C10" t="n">
-        <v>1178.235016187032</v>
+        <v>0.05213969413913825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9825958702064896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9825576268528756</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.05026860093945</v>
+        <v>96.13569321533923</v>
       </c>
       <c r="C11" t="n">
-        <v>1.11302269299825</v>
+        <v>0.09668712627450683</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.9613569321533924</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.9615514976551387</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.87674633863615</v>
+        <v>90.11799410029498</v>
       </c>
       <c r="C12" t="n">
-        <v>153.6189139306856</v>
+        <v>0.2609462865485208</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3187674633863615</v>
+        <v>0.9011799410029498</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1547070050222463</v>
+        <v>0.9022115430943956</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.64665784306093</v>
+        <v>94.74943554875043</v>
       </c>
       <c r="C13" t="n">
-        <v>347.0018869241079</v>
+        <v>0.1537121161721491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3364665784306092</v>
+        <v>0.9474943554875042</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1713154242737634</v>
+        <v>0.9449711690602915</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.14968122561613</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C14" t="n">
-        <v>761.2528584798176</v>
+        <v>0.2313035361001918</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3314968122561613</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1681673394953391</v>
+        <v>0.9132535875116045</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.82224759729755</v>
+        <v>91.50459779063833</v>
       </c>
       <c r="C15" t="n">
-        <v>49.46294731007268</v>
+        <v>0.2114858448660622</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3182224759729755</v>
+        <v>0.9150459779063833</v>
       </c>
       <c r="E15" t="n">
-        <v>0.154311535974001</v>
+        <v>0.9138376463109754</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.8281473023123</v>
+        <v>88.08294189396102</v>
       </c>
       <c r="C16" t="n">
-        <v>91.31379325265685</v>
+        <v>0.3015691789834818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3382814730231231</v>
+        <v>0.8808294189396102</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1740260964581051</v>
+        <v>0.8773209668808082</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.85262848294535</v>
+        <v>94.30678466076697</v>
       </c>
       <c r="C17" t="n">
-        <v>427.7000639279683</v>
+        <v>0.1422023721960916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3385262848294536</v>
+        <v>0.9430678466076696</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1742108820432769</v>
+        <v>0.940781074200536</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.2706251784185</v>
+        <v>89.23615256187337</v>
       </c>
       <c r="C18" t="n">
-        <v>244.6343531969935</v>
+        <v>0.3153990645261804</v>
       </c>
       <c r="D18" t="n">
-        <v>0.342706251784185</v>
+        <v>0.8923615256187338</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1768937197338675</v>
+        <v>0.8766501560394468</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.50071367399372</v>
+        <v>94.89675516224189</v>
       </c>
       <c r="C19" t="n">
-        <v>121.3761198043823</v>
+        <v>0.1389661044396538</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3250071367399372</v>
+        <v>0.9489675516224189</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1625223765201703</v>
+        <v>0.9467135178100833</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.31627436223497</v>
+        <v>95.9882005899705</v>
       </c>
       <c r="C20" t="n">
-        <v>416.1832921147346</v>
+        <v>0.1014785323689769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3131627436223497</v>
+        <v>0.9598820058997051</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1508392495171301</v>
+        <v>0.9593353680518625</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31.11428299552764</v>
+        <v>80.74126938814349</v>
       </c>
       <c r="C21" t="n">
-        <v>203.613950570859</v>
+        <v>0.6538547839232099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3111428299552764</v>
+        <v>0.8074126938814349</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1481387565103058</v>
+        <v>0.791969205360572</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.49481396897897</v>
+        <v>93.15634218289085</v>
       </c>
       <c r="C22" t="n">
-        <v>215.5304913202921</v>
+        <v>0.1873740024903479</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3049481396897897</v>
+        <v>0.9315634218289086</v>
       </c>
       <c r="E22" t="n">
-        <v>0.143743184516663</v>
+        <v>0.9237441192291485</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.11133314302027</v>
+        <v>90.79646017699115</v>
       </c>
       <c r="C23" t="n">
-        <v>50.7633789870888</v>
+        <v>0.2505883648933377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3011133314302027</v>
+        <v>0.9079646017699116</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1401844463466046</v>
+        <v>0.9091136327636704</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>31.05026860093945</v>
+        <v>94.36578171091446</v>
       </c>
       <c r="C24" t="n">
-        <v>1.112968595822652</v>
+        <v>0.1428671418324181</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.9436578171091445</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.9428765535631861</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.87674633863615</v>
+        <v>91.59292035398229</v>
       </c>
       <c r="C25" t="n">
-        <v>687.6087025324504</v>
+        <v>0.2412154765608041</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3187674633863615</v>
+        <v>0.9159292035398231</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1547070050222463</v>
+        <v>0.914971304614458</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.00218860024741</v>
+        <v>90.23616121246724</v>
       </c>
       <c r="C26" t="n">
-        <v>80.39570299784342</v>
+        <v>0.2383943542842341</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.9023616121246724</v>
       </c>
       <c r="E26" t="n">
-        <v>0.166853184765056</v>
+        <v>0.8986259659829965</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.00218860024741</v>
+        <v>82.03539823008849</v>
       </c>
       <c r="C27" t="n">
-        <v>644.7763371785483</v>
+        <v>0.8405260053732416</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.820353982300885</v>
       </c>
       <c r="E27" t="n">
-        <v>0.166853184765056</v>
+        <v>0.8085098125332373</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.53161359527331</v>
+        <v>81.35693215339234</v>
       </c>
       <c r="C28" t="n">
-        <v>450.6274650732677</v>
+        <v>0.715629539793978</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3453161359527331</v>
+        <v>0.8135693215339233</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1791311600009223</v>
+        <v>0.7997379899705688</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.52571389025857</v>
+        <v>99.08554572271387</v>
       </c>
       <c r="C29" t="n">
-        <v>436.5577652225271</v>
+        <v>0.03568322225773955</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9908554572271386</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9908521574351152</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.61575792178133</v>
+        <v>98.70206489675516</v>
       </c>
       <c r="C30" t="n">
-        <v>1408.426114781698</v>
+        <v>0.03204464750211476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3161575792178133</v>
+        <v>0.9870206489675516</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1524695647551914</v>
+        <v>0.9871853728712665</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.23817680083738</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C31" t="n">
-        <v>2003.884928970714</v>
+        <v>0.124135939159031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3323817680083738</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1689089499714628</v>
+        <v>0.9549113938035857</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.19652707491703</v>
+        <v>91.74953358881422</v>
       </c>
       <c r="C32" t="n">
-        <v>392.2636447665931</v>
+        <v>0.2478221449284183</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3219652707491703</v>
+        <v>0.917495335888142</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1584629830121616</v>
+        <v>0.9131341790203887</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.331906661647525</v>
+        <v>4.666030874151057</v>
       </c>
       <c r="C33" t="n">
-        <v>447.5536739996868</v>
+        <v>0.1871412184291791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01331906661647524</v>
+        <v>0.04666030874151056</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0119853164677905</v>
+        <v>0.05047914038603109</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.94909125511466</v>
+        <v>89.73451327433628</v>
       </c>
       <c r="C2" t="n">
-        <v>217.3217251862651</v>
+        <v>0.285677501077104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3494909125511466</v>
+        <v>0.8973451327433629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1827524766966334</v>
+        <v>0.8969625048172529</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.82069914099603</v>
+        <v>90.4424778761062</v>
       </c>
       <c r="C3" t="n">
-        <v>464.0040334559977</v>
+        <v>0.2475017971921868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3282069914099603</v>
+        <v>0.9044247787610619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1626519867901226</v>
+        <v>0.901864456016677</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.52571389025857</v>
+        <v>86.93215339233038</v>
       </c>
       <c r="C4" t="n">
-        <v>484.0809946219127</v>
+        <v>0.4075483431874697</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8693215339233038</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8573745224128789</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.67910622064205</v>
+        <v>91.62241887905604</v>
       </c>
       <c r="C5" t="n">
-        <v>494.607260167102</v>
+        <v>0.2281897028403667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3467910622064205</v>
+        <v>0.9162241887905604</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1805191254189905</v>
+        <v>0.9113792884661092</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.94112405816659</v>
+        <v>91.85840707964601</v>
       </c>
       <c r="C6" t="n">
-        <v>34.20307425315481</v>
+        <v>0.207958094678664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3394112405816659</v>
+        <v>0.9185840707964601</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1741356624922218</v>
+        <v>0.9142500051822695</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.82069914099603</v>
+        <v>87.08016505333092</v>
       </c>
       <c r="C7" t="n">
-        <v>115.2698175430298</v>
+        <v>0.3408153206168208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3282069914099603</v>
+        <v>0.8708016505333092</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1626519867901226</v>
+        <v>0.8601454467102911</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.19828026193998</v>
+        <v>82.37190633136966</v>
       </c>
       <c r="C8" t="n">
-        <v>333.9621459007263</v>
+        <v>0.6440917373360813</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3119828026193998</v>
+        <v>0.8237190633136965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1488482480594803</v>
+        <v>0.7986684249645225</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.52571389025857</v>
+        <v>89.94359812801149</v>
       </c>
       <c r="C9" t="n">
-        <v>168.5488052783146</v>
+        <v>0.259348478863861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8994359812801148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8955431137038531</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>95.9882005899705</v>
       </c>
       <c r="C10" t="n">
-        <v>424.6283065954844</v>
+        <v>0.106135029691931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9598820058997051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9595502142616908</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.52571389025857</v>
+        <v>95.66423584979108</v>
       </c>
       <c r="C11" t="n">
-        <v>314.1985904297637</v>
+        <v>0.1276827010265454</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9566423584979109</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9567711346841723</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.2706251784185</v>
+        <v>89.32153392330383</v>
       </c>
       <c r="C12" t="n">
-        <v>342.8886498769124</v>
+        <v>0.3234047989525909</v>
       </c>
       <c r="D12" t="n">
-        <v>0.342706251784185</v>
+        <v>0.8932153392330383</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1768937197338675</v>
+        <v>0.8929372396046376</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.90484346750404</v>
+        <v>93.45132743362832</v>
       </c>
       <c r="C13" t="n">
-        <v>276.887378031807</v>
+        <v>0.1668860914787123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2990484346750404</v>
+        <v>0.9345132743362832</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1386260380300208</v>
+        <v>0.9322969187401224</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.57881123539131</v>
+        <v>85.01474926253687</v>
       </c>
       <c r="C14" t="n">
-        <v>346.409664773941</v>
+        <v>0.4101720004764502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3057881123539131</v>
+        <v>0.8501474926253687</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1444526760658376</v>
+        <v>0.8339227058061814</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.82069914099603</v>
+        <v>88.32152527270998</v>
       </c>
       <c r="C15" t="n">
-        <v>186.5446827669938</v>
+        <v>0.3069604567931189</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3282069914099603</v>
+        <v>0.8832152527270998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1626519867901226</v>
+        <v>0.8821187827892889</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.76325054715006</v>
+        <v>87.14331438853279</v>
       </c>
       <c r="C16" t="n">
-        <v>873.2931114221728</v>
+        <v>0.3393504866864532</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3176325054715006</v>
+        <v>0.8714331438853277</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1537837194854745</v>
+        <v>0.8681849156860532</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.2706251784185</v>
+        <v>92.094395280236</v>
       </c>
       <c r="C17" t="n">
-        <v>683.7812617817027</v>
+        <v>0.2213852889476887</v>
       </c>
       <c r="D17" t="n">
-        <v>0.342706251784185</v>
+        <v>0.92094395280236</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1768937197338675</v>
+        <v>0.9149707007110639</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.00808830526216</v>
+        <v>85.07651450272061</v>
       </c>
       <c r="C18" t="n">
-        <v>304.494334393243</v>
+        <v>0.3609536216970241</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3500808830526215</v>
+        <v>0.850765145027206</v>
       </c>
       <c r="E18" t="n">
-        <v>0.18328029318516</v>
+        <v>0.8467116048713926</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.00218860024741</v>
+        <v>92.94985250737463</v>
       </c>
       <c r="C19" t="n">
-        <v>287.8930309375127</v>
+        <v>0.2019587487215176</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.9294985250737463</v>
       </c>
       <c r="E19" t="n">
-        <v>0.166853184765056</v>
+        <v>0.9216688226475801</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.52571389025857</v>
+        <v>92.83185840707964</v>
       </c>
       <c r="C20" t="n">
-        <v>683.3806058883667</v>
+        <v>0.1891956165778538</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.9283185840707965</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.9239204773008037</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.47209750949403</v>
+        <v>75.13983684979974</v>
       </c>
       <c r="C21" t="n">
-        <v>1117.781398598353</v>
+        <v>0.6813099370388954</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3447209750949403</v>
+        <v>0.7513983684979975</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1784914464913362</v>
+        <v>0.7291337627841756</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.49481396897897</v>
+        <v>92.15373835413801</v>
       </c>
       <c r="C22" t="n">
-        <v>497.7303072611491</v>
+        <v>0.2304818171641576</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3049481396897897</v>
+        <v>0.9215373835413802</v>
       </c>
       <c r="E22" t="n">
-        <v>0.143743184516663</v>
+        <v>0.9162719377717634</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.15941314371231</v>
+        <v>87.52229690568257</v>
       </c>
       <c r="C23" t="n">
-        <v>108.9130561908086</v>
+        <v>0.3740311966796677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3815941314371232</v>
+        <v>0.8752229690568256</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2121193026152394</v>
+        <v>0.8694316655947493</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.50071367399372</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C24" t="n">
-        <v>94.75277832746505</v>
+        <v>0.2077647234659101</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3250071367399372</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1625223765201703</v>
+        <v>0.9204687702994037</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.82069914099603</v>
+        <v>89.64601769911505</v>
       </c>
       <c r="C25" t="n">
-        <v>391.5784805615743</v>
+        <v>0.3005809887195937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3282069914099603</v>
+        <v>0.8964601769911503</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1626519867901226</v>
+        <v>0.8923742532967115</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.68065467694358</v>
+        <v>89.26253687315634</v>
       </c>
       <c r="C26" t="n">
-        <v>614.1783053080242</v>
+        <v>0.2993635480275164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3368065467694357</v>
+        <v>0.8926253687315635</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172711941727822</v>
+        <v>0.8868113697787574</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.85262848294535</v>
+        <v>82.30088495575221</v>
       </c>
       <c r="C27" t="n">
-        <v>357.0431985855083</v>
+        <v>0.7111706961073955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3385262848294536</v>
+        <v>0.8230088495575221</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1742108820432769</v>
+        <v>0.8131721105880227</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.09068417546865</v>
+        <v>80.73746312684366</v>
       </c>
       <c r="C28" t="n">
-        <v>130.0036090532939</v>
+        <v>0.7482273440873541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3309068417546864</v>
+        <v>0.8073746312684366</v>
       </c>
       <c r="E28" t="n">
-        <v>0.166777965214001</v>
+        <v>0.7898227666002469</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38.01243955397538</v>
+        <v>97.49262536873157</v>
       </c>
       <c r="C29" t="n">
-        <v>837.604176795668</v>
+        <v>0.08226243355723759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3801243955397539</v>
+        <v>0.9749262536873158</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2108020373604325</v>
+        <v>0.9745825390628751</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.76325054715006</v>
+        <v>98.34808259587021</v>
       </c>
       <c r="C30" t="n">
-        <v>871.7552074432373</v>
+        <v>0.05435871651829226</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3176325054715006</v>
+        <v>0.9834808259587021</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1537837194854745</v>
+        <v>0.9835981408950799</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.73965172709106</v>
+        <v>97.66961651917404</v>
       </c>
       <c r="C31" t="n">
-        <v>500.5089285040896</v>
+        <v>0.07626073457237606</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3373965172709107</v>
+        <v>0.9766961651917404</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1732397582163485</v>
+        <v>0.9765213761833849</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.24145825944284</v>
+        <v>89.670738212845</v>
       </c>
       <c r="C32" t="n">
-        <v>418.6082306644525</v>
+        <v>0.3047009317593612</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3324145825944285</v>
+        <v>0.8967073821284497</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1675936421668313</v>
+        <v>0.8907143324077338</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.809227856846977</v>
+        <v>5.185684265337515</v>
       </c>
       <c r="C33" t="n">
-        <v>261.0728645767605</v>
+        <v>0.1800251215848352</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01809227856846978</v>
+        <v>0.05185684265337516</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01632170808847266</v>
+        <v>0.05722702978461898</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.61575792178133</v>
+        <v>86.96891841624928</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94418505414117</v>
+        <v>0.3443107211506382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3161575792178133</v>
+        <v>0.8696891841624927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1524695647551914</v>
+        <v>0.8612128551887182</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.51044559208989</v>
+        <v>85.666138980441</v>
       </c>
       <c r="C3" t="n">
-        <v>200.3556644826274</v>
+        <v>0.4086631227051839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375104455920899</v>
+        <v>0.8566613898044102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2064743396400707</v>
+        <v>0.8460560555529082</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.52571389025857</v>
+        <v>84.48429484684124</v>
       </c>
       <c r="C4" t="n">
-        <v>661.4156132539113</v>
+        <v>0.5298291716647024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8448429484684123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8282629446235633</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.00064014394589</v>
+        <v>85.96060519554668</v>
       </c>
       <c r="C5" t="n">
-        <v>119.0793057715176</v>
+        <v>0.3305349570912465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3400064014394588</v>
+        <v>0.8596060519554667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1746603684562245</v>
+        <v>0.859096975382478</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.99127155079196</v>
+        <v>80.68296438550507</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12813768585523</v>
+        <v>0.524694039610525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3099127155079197</v>
+        <v>0.8068296438550506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1477559376124227</v>
+        <v>0.8028436504401382</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.17711225875657</v>
+        <v>78.30206143651762</v>
       </c>
       <c r="C7" t="n">
-        <v>121.1804764176408</v>
+        <v>0.7265384707017801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3417711225875656</v>
+        <v>0.7830206143651762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1761914276986287</v>
+        <v>0.7666897060809379</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.87674633863615</v>
+        <v>86.50299743077362</v>
       </c>
       <c r="C8" t="n">
-        <v>446.7855857213338</v>
+        <v>0.3249377068528702</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3187674633863615</v>
+        <v>0.8650299743077362</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1547070050222463</v>
+        <v>0.85922920094467</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.8472478135624</v>
+        <v>92.50841270253203</v>
       </c>
       <c r="C9" t="n">
-        <v>673.5404747009277</v>
+        <v>0.1935553012309053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318472478135624</v>
+        <v>0.9250841270253203</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1544932110346491</v>
+        <v>0.9250370814381002</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>88.85197968840561</v>
       </c>
       <c r="C10" t="n">
-        <v>1488.750806554159</v>
+        <v>0.2762634024877722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8885197968840561</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8876173521531163</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.76708276023149</v>
+        <v>91.97847732246819</v>
       </c>
       <c r="C11" t="n">
-        <v>415.5724880854289</v>
+        <v>0.1957515695054705</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3476708276023149</v>
+        <v>0.9197847732246819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1813085741852709</v>
+        <v>0.9199860144879916</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.56266057664858</v>
+        <v>85.78171091445428</v>
       </c>
       <c r="C12" t="n">
-        <v>149.4557202703931</v>
+        <v>0.413225656102198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3356266057664859</v>
+        <v>0.8578171091445428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1706059327245888</v>
+        <v>0.8565621074887441</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.96767273073296</v>
+        <v>90.7669616519174</v>
       </c>
       <c r="C13" t="n">
-        <v>340.4528065045674</v>
+        <v>0.2646511930448469</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3296767273073297</v>
+        <v>0.907669616519174</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1639692520449295</v>
+        <v>0.9047614920904159</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.57881123539131</v>
+        <v>83.24570281749843</v>
       </c>
       <c r="C14" t="n">
-        <v>513.0268960316977</v>
+        <v>0.5086599423976925</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3057881123539131</v>
+        <v>0.8324570281749842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1444526760658376</v>
+        <v>0.8196771693449488</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.8281473023123</v>
+        <v>81.72008408377235</v>
       </c>
       <c r="C15" t="n">
-        <v>107.1436242600282</v>
+        <v>0.4668784012397131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3382814730231231</v>
+        <v>0.8172008408377234</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1731645386652934</v>
+        <v>0.8103964543873465</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.2706251784185</v>
+        <v>77.25395548404398</v>
       </c>
       <c r="C16" t="n">
-        <v>85.36503679814825</v>
+        <v>0.7174167782495109</v>
       </c>
       <c r="D16" t="n">
-        <v>0.342706251784185</v>
+        <v>0.7725395548404398</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1768937197338675</v>
+        <v>0.760961876303487</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.47209750949403</v>
+        <v>86.46346421681849</v>
       </c>
       <c r="C17" t="n">
-        <v>676.3878326416016</v>
+        <v>0.3247977541080521</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3447209750949403</v>
+        <v>0.8646346421681848</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1784914464913362</v>
+        <v>0.8627006300718918</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.76465194335591</v>
+        <v>80.01038071263592</v>
       </c>
       <c r="C18" t="n">
-        <v>631.748618165652</v>
+        <v>0.4920316669158638</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3376465194335591</v>
+        <v>0.8001038071263592</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1734214332769966</v>
+        <v>0.8013965929467014</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.96384051765153</v>
+        <v>88.8524987240374</v>
       </c>
       <c r="C19" t="n">
-        <v>155.3906577547391</v>
+        <v>0.2749111847020685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2996384051765154</v>
+        <v>0.888524987240374</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1388702916163215</v>
+        <v>0.8887958445923265</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.25970812896306</v>
+        <v>87.37584235157745</v>
       </c>
       <c r="C20" t="n">
-        <v>600.8571274509034</v>
+        <v>0.3136717112812524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3225970812896305</v>
+        <v>0.8737584235157744</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1577964725812342</v>
+        <v>0.8698791736644909</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.52519485462678</v>
+        <v>71.58366421854861</v>
       </c>
       <c r="C21" t="n">
-        <v>146.7596826394399</v>
+        <v>0.9144338513132728</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3252519485462677</v>
+        <v>0.715836642185486</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1603550785219388</v>
+        <v>0.6986652316031491</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.03308852152701</v>
+        <v>87.67376880422842</v>
       </c>
       <c r="C22" t="n">
-        <v>505.5948034763336</v>
+        <v>0.3337147630440692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.35033088521527</v>
+        <v>0.8767376880422841</v>
       </c>
       <c r="E22" t="n">
-        <v>0.183461968245808</v>
+        <v>0.8696137901909353</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.3128054740958</v>
+        <v>80.15060683915951</v>
       </c>
       <c r="C23" t="n">
-        <v>1.107854628562927</v>
+        <v>0.5180438660318032</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3031280547409579</v>
+        <v>0.8015060683915951</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1418971806496568</v>
+        <v>0.7963211941507745</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29.46236559139785</v>
+        <v>80.56843052275539</v>
       </c>
       <c r="C24" t="n">
-        <v>2.139349382945026</v>
+        <v>0.5248108534297595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2946236559139785</v>
+        <v>0.805684305227554</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1345394833714359</v>
+        <v>0.803074007236048</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.67910622064205</v>
+        <v>83.07269094023304</v>
       </c>
       <c r="C25" t="n">
-        <v>243.7386408765719</v>
+        <v>0.4569002998915191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3467910622064205</v>
+        <v>0.8307269094023304</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1805191254189905</v>
+        <v>0.823238045010276</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.21007967196948</v>
+        <v>83.74959991003382</v>
       </c>
       <c r="C26" t="n">
-        <v>521.9315447171529</v>
+        <v>0.3880410217728543</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3521007967196949</v>
+        <v>0.8374959991003383</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1849899169636883</v>
+        <v>0.8398173712500924</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.49481396897897</v>
+        <v>82.00641874064654</v>
       </c>
       <c r="C27" t="n">
-        <v>697.4841636657715</v>
+        <v>0.8420418811153164</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3049481396897897</v>
+        <v>0.8200641874064655</v>
       </c>
       <c r="E27" t="n">
-        <v>0.143743184516663</v>
+        <v>0.8195040278909526</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.05026860093945</v>
+        <v>80.26548672566372</v>
       </c>
       <c r="C28" t="n">
-        <v>317.0122030715632</v>
+        <v>0.5788144786444718</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.802654867256637</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.7992234965286393</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.37822126488983</v>
+        <v>91.41592920353983</v>
       </c>
       <c r="C29" t="n">
-        <v>444.0434250513713</v>
+        <v>0.2245477219936826</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3237822126488984</v>
+        <v>0.9141592920353983</v>
       </c>
       <c r="E29" t="n">
-        <v>0.159037813267132</v>
+        <v>0.9138237331347947</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.9107431725188</v>
+        <v>88.34808259587021</v>
       </c>
       <c r="C30" t="n">
-        <v>440.2954058011372</v>
+        <v>0.3667560312780552</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319107431725188</v>
+        <v>0.8834808259587021</v>
       </c>
       <c r="E30" t="n">
-        <v>0.154769583547899</v>
+        <v>0.8623742386224095</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.85262848294535</v>
+        <v>97.25698319189613</v>
       </c>
       <c r="C31" t="n">
-        <v>839.9418589274088</v>
+        <v>0.093215974644986</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3385262848294536</v>
+        <v>0.9725698319189613</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1742108820432769</v>
+        <v>0.9723818069575645</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.81384210359374</v>
+        <v>84.98230376848706</v>
       </c>
       <c r="C32" t="n">
-        <v>388.2543329947843</v>
+        <v>0.4290881164734027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3281384210359375</v>
+        <v>0.8498230376848704</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1637412699415792</v>
+        <v>0.8443066706586203</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.816404204967164</v>
+        <v>5.215253591728247</v>
       </c>
       <c r="C33" t="n">
-        <v>315.7572230166213</v>
+        <v>0.1875271937870706</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01816404204967164</v>
+        <v>0.05215253591728247</v>
       </c>
       <c r="E33" t="n">
-        <v>0.016270849933269</v>
+        <v>0.05498520796774874</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.07143660412287</v>
+        <v>77.234405141913</v>
       </c>
       <c r="C2" t="n">
-        <v>122.9306797206402</v>
+        <v>0.6445582695421763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3807143660412288</v>
+        <v>0.77234405141913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2113298538489591</v>
+        <v>0.755699703473104</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.52571389025857</v>
+        <v>78.45318731130892</v>
       </c>
       <c r="C3" t="n">
-        <v>468.0277897862329</v>
+        <v>0.6430634909619888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.7845318731130893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.7609168262791087</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.52571389025857</v>
+        <v>75.96735265876002</v>
       </c>
       <c r="C4" t="n">
-        <v>605.0488498051961</v>
+        <v>0.6268657711644967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.7596735265876002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.7414091468090447</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.08478447045389</v>
+        <v>67.4090606320124</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5325646512938</v>
+        <v>0.7577350376794736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.310847844704539</v>
+        <v>0.6740906063201239</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1479249625227085</v>
+        <v>0.6532329048983009</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.96384051765153</v>
+        <v>68.82101056237511</v>
       </c>
       <c r="C6" t="n">
-        <v>1.30416502331694</v>
+        <v>0.7212028354406357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2996384051765154</v>
+        <v>0.6882101056237511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1388702916163215</v>
+        <v>0.6853824463465344</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.3128054740958</v>
+        <v>64.17918840128375</v>
       </c>
       <c r="C7" t="n">
-        <v>1.106905368963877</v>
+        <v>1.185873960827788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3031280547409579</v>
+        <v>0.6417918840128375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1418971806496568</v>
+        <v>0.6202917599280771</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.52571389025857</v>
+        <v>82.54759989273263</v>
       </c>
       <c r="C8" t="n">
-        <v>539.5302034775416</v>
+        <v>0.4422226088897635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8254759989273264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8265838868434245</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.52571389025857</v>
+        <v>81.27397295824359</v>
       </c>
       <c r="C9" t="n">
-        <v>941.7766774574915</v>
+        <v>0.4446416257240344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8127397295824359</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8079689729678602</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>84.07529476898588</v>
       </c>
       <c r="C10" t="n">
-        <v>1316.02712987264</v>
+        <v>0.4351674242177978</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8407529476898589</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8408364922749776</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.52571389025857</v>
+        <v>83.59285114923139</v>
       </c>
       <c r="C11" t="n">
-        <v>645.9801856358846</v>
+        <v>0.447165170001487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.835928511492314</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8317926857153939</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.94702376318134</v>
+        <v>77.73518802065762</v>
       </c>
       <c r="C12" t="n">
-        <v>194.0236209869385</v>
+        <v>0.7167666758216606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3594702376318134</v>
+        <v>0.7773518802065762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1914243287051374</v>
+        <v>0.7616815970593245</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.77298246524624</v>
+        <v>87.82662479779238</v>
       </c>
       <c r="C13" t="n">
-        <v>398.6607292175293</v>
+        <v>0.3166062096017413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3677298246524624</v>
+        <v>0.8782662479779237</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2000877661887782</v>
+        <v>0.8764126286009217</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.09658388048339</v>
+        <v>79.91634875734219</v>
       </c>
       <c r="C14" t="n">
-        <v>266.9706232706706</v>
+        <v>0.729677741357591</v>
       </c>
       <c r="D14" t="n">
-        <v>0.350965838804834</v>
+        <v>0.7991634875734219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1840666314269165</v>
+        <v>0.7743530461074203</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.78979921971644</v>
+        <v>65.18213825379112</v>
       </c>
       <c r="C15" t="n">
-        <v>77.62930751244227</v>
+        <v>1.032312983584901</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3078979921971643</v>
+        <v>0.6518213825379112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1460432033093706</v>
+        <v>0.6175192037746511</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.84879626986393</v>
+        <v>66.8416681805206</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6601466735204</v>
+        <v>0.883203693976005</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3084879626986393</v>
+        <v>0.668416681805206</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1465710197978971</v>
+        <v>0.6613876044769236</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.00218860024741</v>
+        <v>76.59564529104924</v>
       </c>
       <c r="C17" t="n">
-        <v>1245.23883005778</v>
+        <v>0.6088263735951235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.7659564529104923</v>
       </c>
       <c r="E17" t="n">
-        <v>0.166853184765056</v>
+        <v>0.7585744265298275</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.50211507019957</v>
+        <v>65.48369795586467</v>
       </c>
       <c r="C18" t="n">
-        <v>351.4212481657664</v>
+        <v>0.8241811953485012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3450211507019957</v>
+        <v>0.6548369795586467</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1798080067282891</v>
+        <v>0.6398523093351385</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.08861668353533</v>
+        <v>75.8005692090762</v>
       </c>
       <c r="C19" t="n">
-        <v>191.0310118675232</v>
+        <v>0.6179182153195143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3408861668353532</v>
+        <v>0.7580056920907621</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1762666472496837</v>
+        <v>0.7548003427846913</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.17173158937361</v>
+        <v>70.37206204205918</v>
       </c>
       <c r="C20" t="n">
-        <v>325.4255339463551</v>
+        <v>1.216883307695389</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3217173158937361</v>
+        <v>0.7037206204205919</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1570070238149538</v>
+        <v>0.6774403867027294</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33.09068417546865</v>
+        <v>67.13924860941704</v>
       </c>
       <c r="C21" t="n">
-        <v>103.9309821248055</v>
+        <v>1.055452654490849</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3309068417546864</v>
+        <v>0.6713924860941705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.166777965214001</v>
+        <v>0.6529648146500016</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.52571389025857</v>
+        <v>81.8099637540117</v>
       </c>
       <c r="C22" t="n">
-        <v>909.8154146830241</v>
+        <v>0.4739650937418143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.8180996375401172</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.8090174224108454</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.00218860024741</v>
+        <v>57.07506120295159</v>
       </c>
       <c r="C23" t="n">
-        <v>427.8098754564921</v>
+        <v>1.04212816208601</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.5707506120295158</v>
       </c>
       <c r="E23" t="n">
-        <v>0.166853184765056</v>
+        <v>0.5563516344616523</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.00218860024741</v>
+        <v>68.49375859652766</v>
       </c>
       <c r="C24" t="n">
-        <v>75.24039076368014</v>
+        <v>0.9010709036141634</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.6849375859652765</v>
       </c>
       <c r="E24" t="n">
-        <v>0.166853184765056</v>
+        <v>0.6716304284196069</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.52571389025857</v>
+        <v>73.49086064758346</v>
       </c>
       <c r="C25" t="n">
-        <v>647.2038566589356</v>
+        <v>0.688216420635581</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.7349086064758346</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.7247462334088272</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.81634789228281</v>
+        <v>76.56026436214846</v>
       </c>
       <c r="C26" t="n">
-        <v>193.3435011545817</v>
+        <v>0.5535732981127998</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2981634789228281</v>
+        <v>0.7656026436214847</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1378844275538971</v>
+        <v>0.7645210533226405</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.81634789228281</v>
+        <v>75.79191861521294</v>
       </c>
       <c r="C27" t="n">
-        <v>230.7010357682904</v>
+        <v>0.9540170072713711</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2981634789228281</v>
+        <v>0.7579191861521293</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1378844275538971</v>
+        <v>0.753156965207278</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.90329501120252</v>
+        <v>73.34371404596926</v>
       </c>
       <c r="C28" t="n">
-        <v>145.7652517318726</v>
+        <v>0.7132709569608171</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3090329501120252</v>
+        <v>0.7334371404596925</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1469664888461424</v>
+        <v>0.7277836451563944</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.8590472235919</v>
+        <v>86.6095727471691</v>
       </c>
       <c r="C29" t="n">
-        <v>524.3074817021687</v>
+        <v>0.3361580169837301</v>
       </c>
       <c r="D29" t="n">
-        <v>0.358590472235919</v>
+        <v>0.8660957274716911</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1906348799388571</v>
+        <v>0.8655866530325056</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.34732134361024</v>
+        <v>86.81588941080805</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.373881530762</v>
+        <v>0.4222127194341738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3034732134361024</v>
+        <v>0.8681588941080806</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1424290297863799</v>
+        <v>0.8493126419330803</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.00218860024741</v>
+        <v>96.44244327373073</v>
       </c>
       <c r="C31" t="n">
-        <v>1615.6157441775</v>
+        <v>0.1499490634414542</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.9644244327373073</v>
       </c>
       <c r="E31" t="n">
-        <v>0.166853184765056</v>
+        <v>0.9648252335877725</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.72326750231404</v>
+        <v>75.76268537501768</v>
       </c>
       <c r="C32" t="n">
-        <v>486.981120608328</v>
+        <v>0.686162896250761</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3272326750231403</v>
+        <v>0.7576268537501767</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1631367539263797</v>
+        <v>0.7462011032166018</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.050785550328266</v>
+        <v>8.47382022883277</v>
       </c>
       <c r="C33" t="n">
-        <v>440.9075804725874</v>
+        <v>0.2604218210018758</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02050785550328266</v>
+        <v>0.08473820228832769</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01835250194037778</v>
+        <v>0.08966520909480248</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.66000570939195</v>
+        <v>58.2509364267857</v>
       </c>
       <c r="C2" t="n">
-        <v>457.2382883707683</v>
+        <v>0.951408811410268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3666000570939195</v>
+        <v>0.5825093642678569</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1991166423618498</v>
+        <v>0.5619298830530055</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.17173158937361</v>
+        <v>58.17334059983218</v>
       </c>
       <c r="C3" t="n">
-        <v>310.3516096337388</v>
+        <v>0.9417519738276801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3217173158937361</v>
+        <v>0.5817334059983218</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1570070238149538</v>
+        <v>0.5480274984822879</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.52571389025857</v>
+        <v>63.91499926469952</v>
       </c>
       <c r="C4" t="n">
-        <v>1209.607211049398</v>
+        <v>0.8172724798321724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.6391499926469952</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.6299408917458711</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.62165762679608</v>
+        <v>50.41609356482322</v>
       </c>
       <c r="C5" t="n">
-        <v>1714.554031803459</v>
+        <v>1.007954207559427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3362165762679608</v>
+        <v>0.5041609356482322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1711337492131153</v>
+        <v>0.477657931574598</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.51929514961202</v>
+        <v>42.16290798363308</v>
       </c>
       <c r="C6" t="n">
-        <v>124.519049490537</v>
+        <v>1.142623807986577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3051929514961202</v>
+        <v>0.4216290798363308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1439279701018349</v>
+        <v>0.3954090669738362</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.14083166809401</v>
+        <v>35.8725421500186</v>
       </c>
       <c r="C7" t="n">
-        <v>169.0995631145042</v>
+        <v>1.396113852659861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3014083166809401</v>
+        <v>0.358725421500186</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1403982403342018</v>
+        <v>0.3508622013892313</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.03308852152701</v>
+        <v>69.75596674711718</v>
       </c>
       <c r="C8" t="n">
-        <v>250.695919821163</v>
+        <v>0.7319757319055498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3503308852152701</v>
+        <v>0.6975596674711719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1833469607002246</v>
+        <v>0.6845172852956509</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.52571389025857</v>
+        <v>63.69120840145676</v>
       </c>
       <c r="C9" t="n">
-        <v>652.1591149965923</v>
+        <v>0.7752849822941547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.6369120840145677</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.6354785870900346</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.73810327078954</v>
+        <v>68.26953520359173</v>
       </c>
       <c r="C10" t="n">
-        <v>511.2076481501261</v>
+        <v>0.8185014257828394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3473810327078954</v>
+        <v>0.6826953520359172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1810469419075171</v>
+        <v>0.6771259190319591</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.73463438265037</v>
+        <v>70.25700914367772</v>
       </c>
       <c r="C11" t="n">
-        <v>191.329979155461</v>
+        <v>0.7592558438579242</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3373463438265037</v>
+        <v>0.7025700914367772</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1721048730400437</v>
+        <v>0.6952259050155742</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.52571389025857</v>
+        <v>58.52792844228757</v>
       </c>
       <c r="C12" t="n">
-        <v>1329.950958124796</v>
+        <v>0.8906633938352266</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.5852792844228756</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.556944548121758</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.12106506111645</v>
+        <v>60.75277467798164</v>
       </c>
       <c r="C13" t="n">
-        <v>551.7097374598186</v>
+        <v>0.913837692886591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3512106506111645</v>
+        <v>0.6075277467798165</v>
       </c>
       <c r="E13" t="n">
-        <v>0.184136409466505</v>
+        <v>0.5973549645306885</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.66885526691407</v>
+        <v>63.96136644780664</v>
       </c>
       <c r="C14" t="n">
-        <v>702.8137247721354</v>
+        <v>1.161773906896512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2966885526691407</v>
+        <v>0.6396136644780663</v>
       </c>
       <c r="E14" t="n">
-        <v>0.136570272823614</v>
+        <v>0.6086376458230316</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.05026860093945</v>
+        <v>44.62936530592825</v>
       </c>
       <c r="C15" t="n">
-        <v>1.110439336299896</v>
+        <v>1.156775310635567</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.4462936530592825</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.4257817304349455</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.96472287822559</v>
+        <v>50.88409069282606</v>
       </c>
       <c r="C16" t="n">
-        <v>509.9315338134766</v>
+        <v>1.103032979369164</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3196472287822559</v>
+        <v>0.5088409069282607</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1554964537885266</v>
+        <v>0.5007041187163315</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.00218860024741</v>
+        <v>55.41475272277442</v>
       </c>
       <c r="C17" t="n">
-        <v>419.4434631347656</v>
+        <v>1.118858140210311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.5541475272277442</v>
       </c>
       <c r="E17" t="n">
-        <v>0.166853184765056</v>
+        <v>0.5398221451082414</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31.16878173686624</v>
+        <v>59.21937040977863</v>
       </c>
       <c r="C18" t="n">
-        <v>352.141615794599</v>
+        <v>0.8787510792414347</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3116878173686624</v>
+        <v>0.5921937040977864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.149525094786847</v>
+        <v>0.5739331036938775</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.85262848294535</v>
+        <v>61.2801148798865</v>
       </c>
       <c r="C19" t="n">
-        <v>158.2512669286846</v>
+        <v>0.8792742803692818</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3385262848294536</v>
+        <v>0.612801148798865</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1742108820432769</v>
+        <v>0.588306047779355</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.61369042984801</v>
+        <v>54.91275876088893</v>
       </c>
       <c r="C20" t="n">
-        <v>1025.598788452148</v>
+        <v>1.086483090122541</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3261369042984801</v>
+        <v>0.5491275876088894</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1611414167636954</v>
+        <v>0.5295536432175845</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.18058114689573</v>
+        <v>59.12724158513481</v>
       </c>
       <c r="C21" t="n">
-        <v>969.5990056355793</v>
+        <v>1.047350468502069</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3518058114689573</v>
+        <v>0.5912724158513483</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1847761229760911</v>
+        <v>0.5713366573483279</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.25727731208747</v>
+        <v>60.66185693647869</v>
       </c>
       <c r="C22" t="n">
-        <v>265.2683654785156</v>
+        <v>1.026274938384692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3125727731208748</v>
+        <v>0.6066185693647869</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1503114330286036</v>
+        <v>0.5966429637001723</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.07143660412287</v>
+        <v>41.45771157189941</v>
       </c>
       <c r="C23" t="n">
-        <v>422.9845080398489</v>
+        <v>1.277958738803864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3807143660412288</v>
+        <v>0.4145771157189941</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2113298538489591</v>
+        <v>0.3946225920485105</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35.79953113781261</v>
+        <v>55.03559719374734</v>
       </c>
       <c r="C24" t="n">
-        <v>334.9614354072372</v>
+        <v>1.031682724754016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3579953113781261</v>
+        <v>0.5503559719374735</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1901101739748544</v>
+        <v>0.5444671022174931</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.05026860093945</v>
+        <v>51.74915007915293</v>
       </c>
       <c r="C25" t="n">
-        <v>1.108121693134308</v>
+        <v>1.170572201907635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3105026860093946</v>
+        <v>0.5174915007915294</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1482837541009493</v>
+        <v>0.4851390355201407</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.03308852152701</v>
+        <v>60.83798302753485</v>
       </c>
       <c r="C26" t="n">
-        <v>555.2492741902669</v>
+        <v>0.9394071478396654</v>
       </c>
       <c r="D26" t="n">
-        <v>0.35033088521527</v>
+        <v>0.6083798302753485</v>
       </c>
       <c r="E26" t="n">
-        <v>0.183461968245808</v>
+        <v>0.5999097997923721</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.00218860024741</v>
+        <v>56.00870249742646</v>
       </c>
       <c r="C27" t="n">
-        <v>415.1932324409485</v>
+        <v>1.179033583154281</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.5600870249742644</v>
       </c>
       <c r="E27" t="n">
-        <v>0.166853184765056</v>
+        <v>0.5472887653426124</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.19982871824151</v>
+        <v>61.19023520964714</v>
       </c>
       <c r="C28" t="n">
-        <v>1.10952258904775</v>
+        <v>0.8727994682888192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3019982871824151</v>
+        <v>0.6119023520964714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1409260568227284</v>
+        <v>0.6026222206923816</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.59061064542081</v>
+        <v>71.33772783501588</v>
       </c>
       <c r="C29" t="n">
-        <v>629.6980341116584</v>
+        <v>0.666841978331407</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3459061064542081</v>
+        <v>0.7133772783501587</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1805943449700456</v>
+        <v>0.7106447245603164</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.69975518819367</v>
+        <v>79.31452694227458</v>
       </c>
       <c r="C30" t="n">
-        <v>636.0533183574677</v>
+        <v>0.4455403439506578</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3169975518819367</v>
+        <v>0.7931452694227459</v>
       </c>
       <c r="E30" t="n">
-        <v>0.153179056304366</v>
+        <v>0.7772262885099506</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.14968122561613</v>
+        <v>91.0927430168081</v>
       </c>
       <c r="C31" t="n">
-        <v>377.7941841839502</v>
+        <v>0.2803460030156809</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3314968122561613</v>
+        <v>0.9109274301680811</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1681673394953391</v>
+        <v>0.9118196556041319</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.05576461157392</v>
+        <v>59.27201792403049</v>
       </c>
       <c r="C32" t="n">
-        <v>508.3577648510042</v>
+        <v>0.9489800195871957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3305576461157392</v>
+        <v>0.5927201792403047</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1661116354179085</v>
+        <v>0.5772977640804756</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.025986488093254</v>
+        <v>10.9414244067103</v>
       </c>
       <c r="C33" t="n">
-        <v>396.4707780064543</v>
+        <v>0.2296185887757694</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02025986488093254</v>
+        <v>0.109414244067103</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01812360116463463</v>
+        <v>0.1134905930155321</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.66000570939195</v>
+        <v>44.57936487339856</v>
       </c>
       <c r="C2" t="n">
-        <v>937.9229698816935</v>
+        <v>1.286979173620542</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3666000570939195</v>
+        <v>0.4457936487339856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1991166423618498</v>
+        <v>0.3881262967828895</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.87969619114352</v>
+        <v>46.31527954394069</v>
       </c>
       <c r="C3" t="n">
-        <v>393.7858476638794</v>
+        <v>1.165472502509753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3287969619114352</v>
+        <v>0.4631527954394069</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1631798032786491</v>
+        <v>0.4028863987982373</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.52571389025857</v>
+        <v>47.50352511699928</v>
       </c>
       <c r="C4" t="n">
-        <v>615.2568053881328</v>
+        <v>1.210509680584073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.4750352511699928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.4084515555587906</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.00218860024741</v>
+        <v>35.02962828398169</v>
       </c>
       <c r="C5" t="n">
-        <v>268.5488030751546</v>
+        <v>1.28405176003774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.350296282839817</v>
       </c>
       <c r="E5" t="n">
-        <v>0.166853184765056</v>
+        <v>0.282312173955003</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.35115355669167</v>
+        <v>39.7766416664504</v>
       </c>
       <c r="C6" t="n">
-        <v>1274.012414805094</v>
+        <v>1.19771816333135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3335115355669167</v>
+        <v>0.397766416664504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1698800737983912</v>
+        <v>0.3328804438142939</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.00218860024741</v>
+        <v>32.29301291533663</v>
       </c>
       <c r="C7" t="n">
-        <v>402.4761875152588</v>
+        <v>1.643929357330004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.3229301291533664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.166853184765056</v>
+        <v>0.2697989908966026</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.52571389025857</v>
+        <v>59.78624382563864</v>
       </c>
       <c r="C8" t="n">
-        <v>1153.451639684041</v>
+        <v>0.8332809560000897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.5978624382563863</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.5775421213741477</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.82607981037898</v>
+        <v>52.10045069594027</v>
       </c>
       <c r="C9" t="n">
-        <v>306.8702699025472</v>
+        <v>1.121153626342615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3482607981037898</v>
+        <v>0.5210045069594027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1818363906737974</v>
+        <v>0.4613434023116493</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.52571389025857</v>
+        <v>52.74509295063105</v>
       </c>
       <c r="C10" t="n">
-        <v>1115.396386591593</v>
+        <v>1.207944211612145</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.5274509295063106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.4874903407824405</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.00808830526216</v>
+        <v>49.23840171627782</v>
       </c>
       <c r="C11" t="n">
-        <v>407.6645660400391</v>
+        <v>1.118146974841754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3500808830526215</v>
+        <v>0.4923840171627782</v>
       </c>
       <c r="E11" t="n">
-        <v>0.18328029318516</v>
+        <v>0.4494009099385445</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.79953113781261</v>
+        <v>40.53529874825907</v>
       </c>
       <c r="C12" t="n">
-        <v>513.0082458019257</v>
+        <v>1.7872535991172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3579953113781261</v>
+        <v>0.4053529874825907</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1901101739748544</v>
+        <v>0.3059952407848446</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.58471094040605</v>
+        <v>51.41817835794427</v>
       </c>
       <c r="C13" t="n">
-        <v>389.6885661443074</v>
+        <v>1.026279443502426</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3258471094040606</v>
+        <v>0.5141817835794427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1608797844859416</v>
+        <v>0.4994327245258309</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.06206801096896</v>
+        <v>46.93993892680733</v>
       </c>
       <c r="C14" t="n">
-        <v>781.8682120641072</v>
+        <v>1.842399145911137</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3506206801096895</v>
+        <v>0.4693993892680733</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1836085929779784</v>
+        <v>0.3874217276343094</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.42401750880198</v>
+        <v>38.62948641424234</v>
       </c>
       <c r="C15" t="n">
-        <v>529.3304581200747</v>
+        <v>1.356371870140235</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3642401750880198</v>
+        <v>0.3862948641424234</v>
       </c>
       <c r="E15" t="n">
-        <v>0.197060877155443</v>
+        <v>0.3218737443962592</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.76915025216481</v>
+        <v>40.74144240002076</v>
       </c>
       <c r="C16" t="n">
-        <v>730.4954621632894</v>
+        <v>1.595892319828272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3376915025216481</v>
+        <v>0.4074144240002077</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1726367221767669</v>
+        <v>0.321526366468566</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.81634789228281</v>
+        <v>48.20197406551959</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.946118164062</v>
+        <v>1.227605540057023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2981634789228281</v>
+        <v>0.4820197406551959</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1378844275538971</v>
+        <v>0.4401649643676714</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.00218860024741</v>
+        <v>55.16760525610083</v>
       </c>
       <c r="C18" t="n">
-        <v>2141.723356119792</v>
+        <v>0.9419398923714957</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.5516760525610083</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166853184765056</v>
+        <v>0.5261756054315954</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.87674633863615</v>
+        <v>48.3975639927681</v>
       </c>
       <c r="C19" t="n">
-        <v>934.7898211797079</v>
+        <v>1.351674999545018</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3187674633863615</v>
+        <v>0.483975639927681</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1547070050222463</v>
+        <v>0.4415985503996407</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.03308852152701</v>
+        <v>43.58281646035</v>
       </c>
       <c r="C20" t="n">
-        <v>265.882492129008</v>
+        <v>1.53204098045826</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3503308852152701</v>
+        <v>0.4358281646035</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1833469607002246</v>
+        <v>0.3790157469093985</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.29805621155892</v>
+        <v>40.05830500263843</v>
       </c>
       <c r="C21" t="n">
-        <v>157.0402234719555</v>
+        <v>2.131253511349981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3529805621155893</v>
+        <v>0.4005830500263843</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1857793657299687</v>
+        <v>0.3286855736412</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.76325054715006</v>
+        <v>48.03960241870605</v>
       </c>
       <c r="C22" t="n">
-        <v>821.7714837392172</v>
+        <v>1.18088606496652</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3176325054715006</v>
+        <v>0.4803960241870605</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1537837194854745</v>
+        <v>0.4570963201068888</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.00218860024741</v>
+        <v>31.72769660637203</v>
       </c>
       <c r="C23" t="n">
-        <v>919.2345933278402</v>
+        <v>1.490778076648712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.3172769660637203</v>
       </c>
       <c r="E23" t="n">
-        <v>0.166853184765056</v>
+        <v>0.2679359685138411</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.52571389025857</v>
+        <v>36.63933079005874</v>
       </c>
       <c r="C24" t="n">
-        <v>873.6394117673237</v>
+        <v>1.630941809217135</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.3663933079005874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.3013833322095006</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.51044559208989</v>
+        <v>40.60242735663803</v>
       </c>
       <c r="C25" t="n">
-        <v>2326.666784922282</v>
+        <v>1.404344450434049</v>
       </c>
       <c r="D25" t="n">
-        <v>0.375104455920899</v>
+        <v>0.4060242735663803</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2064743396400707</v>
+        <v>0.356146662147643</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.57881123539131</v>
+        <v>48.64652808415298</v>
       </c>
       <c r="C26" t="n">
-        <v>148.0315755824248</v>
+        <v>1.034098342061043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3057881123539131</v>
+        <v>0.4864652808415298</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1444526760658376</v>
+        <v>0.462992854300391</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.52571389025857</v>
+        <v>41.34075554286802</v>
       </c>
       <c r="C27" t="n">
-        <v>1172.971028137207</v>
+        <v>1.660785802702109</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3252571389025857</v>
+        <v>0.4134075554286801</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1603519679974151</v>
+        <v>0.3382193920896067</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.32512391975709</v>
+        <v>36.38656043737403</v>
       </c>
       <c r="C28" t="n">
-        <v>227.3709491543161</v>
+        <v>2.112530051916838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3432512391975709</v>
+        <v>0.3638656043737403</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1771741812365293</v>
+        <v>0.249634373666807</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.34732134361024</v>
+        <v>55.92920353982301</v>
       </c>
       <c r="C29" t="n">
-        <v>884.7424036149866</v>
+        <v>1.511630528792739</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3034732134361024</v>
+        <v>0.55929203539823</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1424290297863799</v>
+        <v>0.4964054950132729</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.76325054715006</v>
+        <v>76.22133409458559</v>
       </c>
       <c r="C30" t="n">
-        <v>1118.416273752848</v>
+        <v>0.5287831712514162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3176325054715006</v>
+        <v>0.7622133409458559</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1537837194854745</v>
+        <v>0.7594661683396133</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.00218860024741</v>
+        <v>61.44300556233185</v>
       </c>
       <c r="C31" t="n">
-        <v>2138.229305013021</v>
+        <v>1.075128742059072</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3300218860024741</v>
+        <v>0.6144300556233185</v>
       </c>
       <c r="E31" t="n">
-        <v>0.166853184765056</v>
+        <v>0.5766300776205817</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.41054853415687</v>
+        <v>46.33388985487186</v>
       </c>
       <c r="C32" t="n">
-        <v>840.274421830571</v>
+        <v>1.349726824951358</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3341054853415687</v>
+        <v>0.4633388985487187</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1692476847529097</v>
+        <v>0.4092677840926687</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.829535465099436</v>
+        <v>9.318927827295871</v>
       </c>
       <c r="C33" t="n">
-        <v>567.2863493279476</v>
+        <v>0.3498982328661968</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01829535465099436</v>
+        <v>0.09318927827295871</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01646591042577876</v>
+        <v>0.1105617423164966</v>
       </c>
     </row>
   </sheetData>
